--- a/CPSC457A5_Graphs.xlsx
+++ b/CPSC457A5_Graphs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cygwin\home\cygwin\cpsc457A5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -134,8 +134,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Variable Readers, V1</a:t>
+              <a:t>Algorithm</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> 1 (Constant # of Writers)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -864,6 +869,75 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t># of Readers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -926,6 +1000,80 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Mean</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> completion time per reader (ns)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1047,8 +1195,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Variable Readers, V2</a:t>
+              <a:t>Algorithm 2 (Constant</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> # of Writers)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1777,6 +1930,75 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t># of Readers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1839,6 +2061,75 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Mean completion time per reader (ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1960,13 +2251,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Variable</a:t>
+              <a:t>Algorithm 3 (Constant # of Writers)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> Readers, V3</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-CA"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2687,6 +2973,75 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t># of Readers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2749,6 +3104,88 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Mean</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> completion time per reader (ns)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.38499234470691163"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2870,11 +3307,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Variable</a:t>
+              <a:t>Algorithm 1 (Constant</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> Writers, V1</a:t>
+              <a:t> number of readers)</a:t>
             </a:r>
             <a:endParaRPr lang="en-CA"/>
           </a:p>
@@ -2940,50 +3377,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$103:$B$122</c:f>
@@ -3161,6 +3554,75 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t># of Writers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3223,6 +3685,83 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Mean completion time per writer (ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.4767181988733209E-2"/>
+              <c:y val="0.38499234470691163"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3344,8 +3883,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Variable Writers, V2</a:t>
+              <a:t>Algorithm 2 (Constant</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> number of readers)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3586,6 +4130,83 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t># of Writers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.51605275184757005"/>
+              <c:y val="0.86942106642646044"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3648,6 +4269,75 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Mean completiiion time per writer (ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3769,8 +4459,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Variable Writers, V3</a:t>
+              <a:t>Algorithm 3 (Constant</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> number of readers)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4011,6 +4706,75 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t># of Writers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4073,6 +4837,75 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Mean competion time per writer (ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4122,6 +4955,3333 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Comparision</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> of Reader &amp; Writer Algorithms, Constant # of Writers</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Algorithm 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1336669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2803857.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2596674.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4038638.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84261740.120000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7218309.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5128842.2857140005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6153142.2750000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10831692.822222</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6737460.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7183488.0909089996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11179592.35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5823376.4153850004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6667521.9142859997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7359417.2800000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131487576.72499999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5988330.1058820002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7373014.7444439996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7312862.326316</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7972395.1200000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>101876263.952381</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7413078.7909089997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6483412.2347830003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5357064.4416669998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6055856.4960000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>51280169.630768999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5478934.5555560002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6349761.3214290002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5652314.4827589998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21818769.693333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5634036.1548389997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4995151.5187499998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5977949.9696970005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4706765.3411760004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16287198.84</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5366039.2777779996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4381250.5675680004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>27315579.010526001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>24920524.184615001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4524245.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4906048.5219510002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4081406.604762</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13756643.139535001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4960797.9545449996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4123188.4444439998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12051149.069565</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4377944.3106380003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54271393.337499999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3759081.897959</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3964922.2719999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3332794.1411759998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>80230101.396154001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3395961.7283020001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3506839.651852</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4434307.8036359996</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3174042.1642860002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3049884.8526320001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3662227.1896549999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3033590.6203390001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3674675.16</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>55100242.642623</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3654455.8258059998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3429212.1650789999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2799626.3374999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3401241.1692309999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>33376739.984848</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3553530.0507459999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2930148.0882350001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2703388.9362320001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8863932.7200000007</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3084317.6056340002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2958109.1194440001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2796954.0849319999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3809885.57027</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>56175403.490667</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3141245.55</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2819340.6311690002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3109016.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>22949400.934177</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2724101.3925000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2677289.3209879999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2861466.3243900002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3380813.5518069998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>36530950.269047998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4216574.9858820001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2774418.0744190002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2875976.2597699999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>25044509.820455</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2634583.1730340002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2763514.6511110002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2571216.6153850001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2817274.547826</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7394350.9849460004</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2642760.004255</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2415641.2484209999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2728028.4750000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>22969814.616494998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2819711.1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2720120.5959600001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2364708.4580000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E38-4EB6-AAE3-3060A38379B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Algorithm 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>127284880.40000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>143149528.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>282289734.26666701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52430838</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21479487.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27910620.733332999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41356121</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20871394.425000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>237275828.37777799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16829106.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28651065.145454999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19720315.600000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18053782.215385001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25147683.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>281941950.61333299</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19959634.875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16548466.199999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17475860.222222</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17185154.157894999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18102153.27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>146911756.08571401</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16141257.281818001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16692528.391303999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14281017.275</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15816205.424000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>166637119.19999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14813389.259259</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12281981.478571</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13531067.841379</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12402024.213332999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>152768849.21935499</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10771759.512499999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10738527.775758</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10477825.611764999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9589374.6628569998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9624908.822222</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>73077329.302702993</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10364177.152632</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9547323.8205130007</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8732123.0999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8075133.1756100003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>196789622.752381</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9209674.283721</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11205049.381818</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7605172.7022219999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>94619422.265217006</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8575717.8595739994</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7770178.0333329998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7237187.555102</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6769044.8679999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6421783.0862750001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>75731212.538461998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10138705.324527999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7559759.233333</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6683272.0254549999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6305397.0071430001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>96798709.835088</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7151896.8586210003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7697310.8542370005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6227803.0899999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5378989.7475410001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43763825.761289999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5602880.3333329996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>19713799.271875001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5079555.4430769999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>34904102.915151998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5082830.1343280002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5108285.2529410003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5124055.3420289997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4945415.1085710004</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43849473.721127003</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5013773.9666670002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4829624.9123290004</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4925347.5783780003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4677999.4346669996</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>220619566.45789501</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4702535.579221</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4698585.9487180002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4574093.0050630001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4541248.0949999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4429146.1358019998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>48171824.309756003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4783169.9108429998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4476088.6261900002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4598123.1035289997</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8082295.1697669998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>37381960.845977001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4688082.3090909999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7798221.3191010002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4845161.0066670002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5251118.9054950001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43596159.908696003</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7864605.3784950003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6248987.1978719998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>37676341.724211</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4363589.702083</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5073342.0742269997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4650723.9877549997</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4265168.4404039998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>50146465.692000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3E38-4EB6-AAE3-3060A38379B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Algorithm 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$2:$W$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$2:$Y$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>9233091.8000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12175294.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18762660.399999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>609779545.39999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18697560.239999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12082864.566667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17677507.628571</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29740907.074999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>326128528.39999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16409425.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20529161.090909</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17543039.550000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>264406315.53846201</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20581582.257142998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17969519.800000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13952471.8125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85537328.329411998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16974951.511110999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16707448.915789001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>153485132.69</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17647286.914285999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15838518.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>119283247.834783</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16347221.300000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16463461.864</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>136499599.446154</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15570073.525926</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16918046.621429</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>96169382.627586007</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14379059.26</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14658458.509677</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>75296418.981250003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11099984.393939</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13065140.170588</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>55509136.194286004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14705780.211111</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>120257952.702703</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11477566.852631999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12457609.620513</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>51151125.829999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11470936.078049</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11357157.638095001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>46867973.372093</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10670562.199999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>72546617.164444</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8854034.0478259996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10682426.068085</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>55794905.245833002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8863322.8285709992</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19991717.232000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8131156.6862749998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9581823.8038459998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>37420906.792452998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9322350.6037039999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8581774.6509089991</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>50695882.935713999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8648796.0421050005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9516580.6758619994</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>47217076.511863999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12542927</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>33325958.101638999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7813968.6064520003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7344308.984127</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>50098489.612499997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8346248.1230769996</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>90965995.821211994</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8057887.5074629998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7059470.0441180002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>29479363.460870001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8755718.4657140002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7647078.6929580001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>48287726.630556002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6977488.8219179995</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>34155428.402703002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6909560.4586669998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7629440.6973679997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>26863927.514286</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6706799.0538459998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>66353716.354429998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6634979.7725</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6393162.612346</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>905246072.51951206</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>30291339.693976</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5894055.307143</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>28379447.065882001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5980772.5744190002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5377695.0965520004</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>34243090.020455003</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6553440.7505620001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5417366.9400000004</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5946587.1868129997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5983704.6239130003</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45466322.064516</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5818681.9340430005</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>22831401.837894998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6589220.704167</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5152099.7360819997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>29639728.489796001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5481496.9919189997</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6065223.7699999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3E38-4EB6-AAE3-3060A38379B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="389721904"/>
+        <c:axId val="389718624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="389721904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> of Readers</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389718624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="389718624"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Mean competion time per reader (ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389721904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Comparision of Reader &amp; Writer Algorithms, Constant 500 Readers</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Algorithm 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$103:$B$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$103:$C$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>346924.11200000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>275819.27600000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1061383.452</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>924316.72199999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35487849.976000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1554733.892</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1515314.652</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1552565.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1784755.922</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2286383.9819999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2237082.5619999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2051215.61</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31273265.34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2460434.074</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3014149.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3177321.62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3318722.1719999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42095530.612000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3793994.0639999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4299164.7960000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E383-48C3-B39A-17C2DAD19FCF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Algorithm 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$103:$M$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$103:$N$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>90593.796000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>174931.89799999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>185317.856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>289372.42200000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>345014.22600000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>397298.08399999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>403859.98800000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>543956.20200000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>677666.73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>676205.01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>760893.80799999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24772179.528000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1101138.8359999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>890775.97400000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>985265.69400000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1004507.4620000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1041117.044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13130722.085999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1258465.1640000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1347928.2420000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E383-48C3-B39A-17C2DAD19FCF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Algorithm 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$103:$X$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$103:$Y$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>118634.93399999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>299895.22200000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>506964.31400000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>629075.20600000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>912143.17599999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1106859.9680000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1155219.7080000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1277635.088</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1618818.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1664548.084</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1733207.598</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2101435.6120000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3227297.0159999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2089859.08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26206357.476</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2999731.4180000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3307454.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26618174.357999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3575593.898</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3290052.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E383-48C3-B39A-17C2DAD19FCF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="392205688"/>
+        <c:axId val="392198144"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="392205688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Number of Writers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392198144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="392198144"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Mean Completion</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> time per writer (ns)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392205688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.65589785651793531"/>
+          <c:y val="0.4568857538641003"/>
+          <c:w val="6.6184657438069963E-2"/>
+          <c:h val="0.11691765617689145"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4399,6 +8559,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7495,20 +11735,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>514441</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>48268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>228692</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7535,16 +12807,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>493642</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>84069</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>200438</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>160269</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7571,16 +12843,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>246408</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>144944</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>191328</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>15736</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7607,16 +12879,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>521803</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>226114</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>106432</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7643,16 +12915,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>374788</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>150744</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>339173</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>36443</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7679,16 +12951,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>67089</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>178077</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>362778</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>67918</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7708,6 +12980,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>592667</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A7BD82-069C-410A-BA20-8A59742B55A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>195790</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>74083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>201082</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>48684</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D648E3D-0426-45CE-9A35-9DCA14AB62B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8015,11 +13359,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB95" sqref="AB95"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103:C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -8069,6 +13417,14 @@
       <c r="N2">
         <v>127284880.40000001</v>
       </c>
+      <c r="Q2">
+        <f>N2*L2</f>
+        <v>636424402</v>
+      </c>
+      <c r="R2">
+        <f>SUM(Q2:Q101)/10000000000</f>
+        <v>59.553453348699975</v>
+      </c>
       <c r="W2">
         <v>5</v>
       </c>
@@ -8098,6 +13454,10 @@
       <c r="N3">
         <v>143149528.5</v>
       </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q66" si="0">N3*L3</f>
+        <v>1431495285</v>
+      </c>
       <c r="W3">
         <v>10</v>
       </c>
@@ -8127,6 +13487,10 @@
       <c r="N4">
         <v>282289734.26666701</v>
       </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>4234346014.0000052</v>
+      </c>
       <c r="W4">
         <v>15</v>
       </c>
@@ -8156,6 +13520,10 @@
       <c r="N5">
         <v>52430838</v>
       </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>1048616760</v>
+      </c>
       <c r="W5">
         <v>20</v>
       </c>
@@ -8185,6 +13553,10 @@
       <c r="N6">
         <v>21479487.84</v>
       </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>536987196</v>
+      </c>
       <c r="W6">
         <v>25</v>
       </c>
@@ -8214,6 +13586,10 @@
       <c r="N7">
         <v>27910620.733332999</v>
       </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>837318621.99998999</v>
+      </c>
       <c r="W7">
         <v>30</v>
       </c>
@@ -8243,6 +13619,10 @@
       <c r="N8">
         <v>41356121</v>
       </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>1447464235</v>
+      </c>
       <c r="W8">
         <v>35</v>
       </c>
@@ -8272,6 +13652,10 @@
       <c r="N9">
         <v>20871394.425000001</v>
       </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>834855777</v>
+      </c>
       <c r="W9">
         <v>40</v>
       </c>
@@ -8301,6 +13685,10 @@
       <c r="N10">
         <v>237275828.37777799</v>
       </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>10677412277.00001</v>
+      </c>
       <c r="W10">
         <v>45</v>
       </c>
@@ -8330,6 +13718,10 @@
       <c r="N11">
         <v>16829106.02</v>
       </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>841455301</v>
+      </c>
       <c r="W11">
         <v>50</v>
       </c>
@@ -8362,6 +13754,10 @@
       <c r="O12">
         <v>36858079.745454997</v>
       </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>1575808583.000025</v>
+      </c>
       <c r="W12">
         <v>55</v>
       </c>
@@ -8391,6 +13787,10 @@
       <c r="N13">
         <v>19720315.600000001</v>
       </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>1183218936</v>
+      </c>
       <c r="W13">
         <v>60</v>
       </c>
@@ -8420,6 +13820,10 @@
       <c r="N14">
         <v>18053782.215385001</v>
       </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>1173495844.000025</v>
+      </c>
       <c r="W14">
         <v>65</v>
       </c>
@@ -8449,6 +13853,10 @@
       <c r="N15">
         <v>25147683.5</v>
       </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>1760337845</v>
+      </c>
       <c r="W15">
         <v>70</v>
       </c>
@@ -8478,6 +13886,10 @@
       <c r="N16">
         <v>281941950.61333299</v>
       </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>21145646295.999973</v>
+      </c>
       <c r="W16">
         <v>75</v>
       </c>
@@ -8507,6 +13919,10 @@
       <c r="N17">
         <v>19959634.875</v>
       </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>1596770790</v>
+      </c>
       <c r="W17">
         <v>80</v>
       </c>
@@ -8536,6 +13952,10 @@
       <c r="N18">
         <v>16548466.199999999</v>
       </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>1406619627</v>
+      </c>
       <c r="W18">
         <v>85</v>
       </c>
@@ -8568,6 +13988,10 @@
       <c r="N19">
         <v>17475860.222222</v>
       </c>
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>1572827419.99998</v>
+      </c>
       <c r="W19">
         <v>90</v>
       </c>
@@ -8597,6 +14021,10 @@
       <c r="N20">
         <v>17185154.157894999</v>
       </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>1632589645.0000248</v>
+      </c>
       <c r="W20">
         <v>95</v>
       </c>
@@ -8625,6 +14053,10 @@
       </c>
       <c r="N21">
         <v>18102153.27</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>1810215327</v>
       </c>
       <c r="W21">
         <v>100</v>
@@ -8655,6 +14087,10 @@
       <c r="N22">
         <v>146911756.08571401</v>
       </c>
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>15425734388.999971</v>
+      </c>
       <c r="W22">
         <v>105</v>
       </c>
@@ -8684,6 +14120,10 @@
       <c r="N23">
         <v>16141257.281818001</v>
       </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>1775538300.99998</v>
+      </c>
       <c r="W23">
         <v>110</v>
       </c>
@@ -8713,6 +14153,10 @@
       <c r="N24">
         <v>16692528.391303999</v>
       </c>
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>1919640764.9999599</v>
+      </c>
       <c r="W24">
         <v>115</v>
       </c>
@@ -8742,6 +14186,10 @@
       <c r="N25">
         <v>14281017.275</v>
       </c>
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>1713722073</v>
+      </c>
       <c r="W25">
         <v>120</v>
       </c>
@@ -8771,6 +14219,10 @@
       <c r="N26">
         <v>15816205.424000001</v>
       </c>
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>1977025678</v>
+      </c>
       <c r="W26">
         <v>125</v>
       </c>
@@ -8800,6 +14252,10 @@
       <c r="N27">
         <v>166637119.19999999</v>
       </c>
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>21662825496</v>
+      </c>
       <c r="W27">
         <v>130</v>
       </c>
@@ -8829,6 +14285,10 @@
       <c r="N28">
         <v>14813389.259259</v>
       </c>
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>1999807549.999965</v>
+      </c>
       <c r="W28">
         <v>135</v>
       </c>
@@ -8858,6 +14318,10 @@
       <c r="N29">
         <v>12281981.478571</v>
       </c>
+      <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>1719477406.9999399</v>
+      </c>
       <c r="W29">
         <v>140</v>
       </c>
@@ -8887,6 +14351,10 @@
       <c r="N30">
         <v>13531067.841379</v>
       </c>
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>1962004836.9999549</v>
+      </c>
       <c r="W30">
         <v>145</v>
       </c>
@@ -8916,6 +14384,10 @@
       <c r="N31">
         <v>12402024.213332999</v>
       </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>1860303631.9999499</v>
+      </c>
       <c r="W31">
         <v>150</v>
       </c>
@@ -8945,6 +14417,10 @@
       <c r="N32">
         <v>152768849.21935499</v>
       </c>
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>23679171629.000023</v>
+      </c>
       <c r="W32">
         <v>155</v>
       </c>
@@ -8974,6 +14450,10 @@
       <c r="N33">
         <v>10771759.512499999</v>
       </c>
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>1723481522</v>
+      </c>
       <c r="W33">
         <v>160</v>
       </c>
@@ -9003,6 +14483,10 @@
       <c r="N34">
         <v>10738527.775758</v>
       </c>
+      <c r="Q34">
+        <f t="shared" si="0"/>
+        <v>1771857083.0000701</v>
+      </c>
       <c r="W34">
         <v>165</v>
       </c>
@@ -9032,6 +14516,10 @@
       <c r="N35">
         <v>10477825.611764999</v>
       </c>
+      <c r="Q35">
+        <f t="shared" si="0"/>
+        <v>1781230354.0000498</v>
+      </c>
       <c r="W35">
         <v>170</v>
       </c>
@@ -9061,6 +14549,10 @@
       <c r="N36">
         <v>9589374.6628569998</v>
       </c>
+      <c r="Q36">
+        <f t="shared" si="0"/>
+        <v>1678140565.999975</v>
+      </c>
       <c r="W36">
         <v>175</v>
       </c>
@@ -9090,6 +14582,10 @@
       <c r="N37">
         <v>9624908.822222</v>
       </c>
+      <c r="Q37">
+        <f t="shared" si="0"/>
+        <v>1732483587.9999599</v>
+      </c>
       <c r="W37">
         <v>180</v>
       </c>
@@ -9119,6 +14615,10 @@
       <c r="N38">
         <v>73077329.302702993</v>
       </c>
+      <c r="Q38">
+        <f t="shared" si="0"/>
+        <v>13519305921.000053</v>
+      </c>
       <c r="W38">
         <v>185</v>
       </c>
@@ -9148,6 +14648,10 @@
       <c r="N39">
         <v>10364177.152632</v>
       </c>
+      <c r="Q39">
+        <f t="shared" si="0"/>
+        <v>1969193659.0000799</v>
+      </c>
       <c r="W39">
         <v>190</v>
       </c>
@@ -9177,6 +14681,10 @@
       <c r="N40">
         <v>9547323.8205130007</v>
       </c>
+      <c r="Q40">
+        <f t="shared" si="0"/>
+        <v>1861728145.000035</v>
+      </c>
       <c r="W40">
         <v>195</v>
       </c>
@@ -9206,6 +14714,10 @@
       <c r="N41">
         <v>8732123.0999999996</v>
       </c>
+      <c r="Q41">
+        <f t="shared" si="0"/>
+        <v>1746424620</v>
+      </c>
       <c r="W41">
         <v>200</v>
       </c>
@@ -9235,6 +14747,10 @@
       <c r="N42">
         <v>8075133.1756100003</v>
       </c>
+      <c r="Q42">
+        <f t="shared" si="0"/>
+        <v>1655402301.0000501</v>
+      </c>
       <c r="W42">
         <v>205</v>
       </c>
@@ -9264,6 +14780,10 @@
       <c r="N43">
         <v>196789622.752381</v>
       </c>
+      <c r="Q43">
+        <f t="shared" si="0"/>
+        <v>41325820778.000008</v>
+      </c>
       <c r="W43">
         <v>210</v>
       </c>
@@ -9293,6 +14813,10 @@
       <c r="N44">
         <v>9209674.283721</v>
       </c>
+      <c r="Q44">
+        <f t="shared" si="0"/>
+        <v>1980079971.000015</v>
+      </c>
       <c r="W44">
         <v>215</v>
       </c>
@@ -9322,6 +14846,10 @@
       <c r="N45">
         <v>11205049.381818</v>
       </c>
+      <c r="Q45">
+        <f t="shared" si="0"/>
+        <v>2465110863.9999599</v>
+      </c>
       <c r="W45">
         <v>220</v>
       </c>
@@ -9351,6 +14879,10 @@
       <c r="N46">
         <v>7605172.7022219999</v>
       </c>
+      <c r="Q46">
+        <f t="shared" si="0"/>
+        <v>1711163857.9999499</v>
+      </c>
       <c r="W46">
         <v>225</v>
       </c>
@@ -9380,6 +14912,10 @@
       <c r="N47">
         <v>94619422.265217006</v>
       </c>
+      <c r="Q47">
+        <f t="shared" si="0"/>
+        <v>21762467120.999912</v>
+      </c>
       <c r="W47">
         <v>230</v>
       </c>
@@ -9409,6 +14945,10 @@
       <c r="N48">
         <v>8575717.8595739994</v>
       </c>
+      <c r="Q48">
+        <f t="shared" si="0"/>
+        <v>2015293696.9998899</v>
+      </c>
       <c r="W48">
         <v>235</v>
       </c>
@@ -9438,6 +14978,10 @@
       <c r="N49">
         <v>7770178.0333329998</v>
       </c>
+      <c r="Q49">
+        <f t="shared" si="0"/>
+        <v>1864842727.9999199</v>
+      </c>
       <c r="W49">
         <v>240</v>
       </c>
@@ -9467,6 +15011,10 @@
       <c r="N50">
         <v>7237187.555102</v>
       </c>
+      <c r="Q50">
+        <f t="shared" si="0"/>
+        <v>1773110950.99999</v>
+      </c>
       <c r="W50">
         <v>245</v>
       </c>
@@ -9496,6 +15044,10 @@
       <c r="N51">
         <v>6769044.8679999998</v>
       </c>
+      <c r="Q51">
+        <f t="shared" si="0"/>
+        <v>1692261217</v>
+      </c>
       <c r="W51">
         <v>250</v>
       </c>
@@ -9525,6 +15077,10 @@
       <c r="N52">
         <v>6421783.0862750001</v>
       </c>
+      <c r="Q52">
+        <f t="shared" si="0"/>
+        <v>1637554687.0001249</v>
+      </c>
       <c r="W52">
         <v>255</v>
       </c>
@@ -9554,6 +15110,10 @@
       <c r="N53">
         <v>75731212.538461998</v>
       </c>
+      <c r="Q53">
+        <f t="shared" si="0"/>
+        <v>19690115260.000118</v>
+      </c>
       <c r="W53">
         <v>260</v>
       </c>
@@ -9583,6 +15143,10 @@
       <c r="N54">
         <v>10138705.324527999</v>
       </c>
+      <c r="Q54">
+        <f t="shared" si="0"/>
+        <v>2686756910.9999199</v>
+      </c>
       <c r="W54">
         <v>265</v>
       </c>
@@ -9612,6 +15176,10 @@
       <c r="N55">
         <v>7559759.233333</v>
       </c>
+      <c r="Q55">
+        <f t="shared" si="0"/>
+        <v>2041134992.9999099</v>
+      </c>
       <c r="W55">
         <v>270</v>
       </c>
@@ -9641,6 +15209,10 @@
       <c r="N56">
         <v>6683272.0254549999</v>
       </c>
+      <c r="Q56">
+        <f t="shared" si="0"/>
+        <v>1837899807.0001249</v>
+      </c>
       <c r="W56">
         <v>275</v>
       </c>
@@ -9670,6 +15242,10 @@
       <c r="N57">
         <v>6305397.0071430001</v>
       </c>
+      <c r="Q57">
+        <f t="shared" si="0"/>
+        <v>1765511162.0000401</v>
+      </c>
       <c r="W57">
         <v>280</v>
       </c>
@@ -9699,6 +15275,10 @@
       <c r="N58">
         <v>96798709.835088</v>
       </c>
+      <c r="Q58">
+        <f t="shared" si="0"/>
+        <v>27587632303.00008</v>
+      </c>
       <c r="W58">
         <v>285</v>
       </c>
@@ -9728,6 +15308,10 @@
       <c r="N59">
         <v>7151896.8586210003</v>
       </c>
+      <c r="Q59">
+        <f t="shared" si="0"/>
+        <v>2074050089.0000901</v>
+      </c>
       <c r="W59">
         <v>290</v>
       </c>
@@ -9757,6 +15341,10 @@
       <c r="N60">
         <v>7697310.8542370005</v>
       </c>
+      <c r="Q60">
+        <f t="shared" si="0"/>
+        <v>2270706701.9999151</v>
+      </c>
       <c r="W60">
         <v>295</v>
       </c>
@@ -9786,6 +15374,10 @@
       <c r="N61">
         <v>6227803.0899999999</v>
       </c>
+      <c r="Q61">
+        <f t="shared" si="0"/>
+        <v>1868340927</v>
+      </c>
       <c r="W61">
         <v>300</v>
       </c>
@@ -9815,6 +15407,10 @@
       <c r="N62">
         <v>5378989.7475410001</v>
       </c>
+      <c r="Q62">
+        <f t="shared" si="0"/>
+        <v>1640591873.000005</v>
+      </c>
       <c r="W62">
         <v>305</v>
       </c>
@@ -9844,6 +15440,10 @@
       <c r="N63">
         <v>43763825.761289999</v>
       </c>
+      <c r="Q63">
+        <f t="shared" si="0"/>
+        <v>13566785985.999899</v>
+      </c>
       <c r="W63">
         <v>310</v>
       </c>
@@ -9873,6 +15473,10 @@
       <c r="N64">
         <v>5602880.3333329996</v>
       </c>
+      <c r="Q64">
+        <f t="shared" si="0"/>
+        <v>1764907304.9998949</v>
+      </c>
       <c r="W64">
         <v>315</v>
       </c>
@@ -9902,6 +15506,10 @@
       <c r="N65">
         <v>19713799.271875001</v>
       </c>
+      <c r="Q65">
+        <f t="shared" si="0"/>
+        <v>6308415767</v>
+      </c>
       <c r="W65">
         <v>320</v>
       </c>
@@ -9931,6 +15539,10 @@
       <c r="N66">
         <v>5079555.4430769999</v>
       </c>
+      <c r="Q66">
+        <f t="shared" si="0"/>
+        <v>1650855519.000025</v>
+      </c>
       <c r="W66">
         <v>325</v>
       </c>
@@ -9960,6 +15572,10 @@
       <c r="N67">
         <v>34904102.915151998</v>
       </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q101" si="1">N67*L67</f>
+        <v>11518353962.00016</v>
+      </c>
       <c r="W67">
         <v>330</v>
       </c>
@@ -9989,6 +15605,10 @@
       <c r="N68">
         <v>5082830.1343280002</v>
       </c>
+      <c r="Q68">
+        <f t="shared" si="1"/>
+        <v>1702748094.9998801</v>
+      </c>
       <c r="W68">
         <v>335</v>
       </c>
@@ -10018,6 +15638,10 @@
       <c r="N69">
         <v>5108285.2529410003</v>
       </c>
+      <c r="Q69">
+        <f t="shared" si="1"/>
+        <v>1736816985.9999402</v>
+      </c>
       <c r="W69">
         <v>340</v>
       </c>
@@ -10047,6 +15671,10 @@
       <c r="N70">
         <v>5124055.3420289997</v>
       </c>
+      <c r="Q70">
+        <f t="shared" si="1"/>
+        <v>1767799093.000005</v>
+      </c>
       <c r="W70">
         <v>345</v>
       </c>
@@ -10076,6 +15704,10 @@
       <c r="N71">
         <v>4945415.1085710004</v>
       </c>
+      <c r="Q71">
+        <f t="shared" si="1"/>
+        <v>1730895287.99985</v>
+      </c>
       <c r="W71">
         <v>350</v>
       </c>
@@ -10105,6 +15737,10 @@
       <c r="N72">
         <v>43849473.721127003</v>
       </c>
+      <c r="Q72">
+        <f t="shared" si="1"/>
+        <v>15566563171.000086</v>
+      </c>
       <c r="W72">
         <v>355</v>
       </c>
@@ -10134,6 +15770,10 @@
       <c r="N73">
         <v>5013773.9666670002</v>
       </c>
+      <c r="Q73">
+        <f t="shared" si="1"/>
+        <v>1804958628.0001202</v>
+      </c>
       <c r="W73">
         <v>360</v>
       </c>
@@ -10163,6 +15803,10 @@
       <c r="N74">
         <v>4829624.9123290004</v>
       </c>
+      <c r="Q74">
+        <f t="shared" si="1"/>
+        <v>1762813093.0000851</v>
+      </c>
       <c r="W74">
         <v>365</v>
       </c>
@@ -10192,6 +15836,10 @@
       <c r="N75">
         <v>4925347.5783780003</v>
       </c>
+      <c r="Q75">
+        <f t="shared" si="1"/>
+        <v>1822378603.99986</v>
+      </c>
       <c r="W75">
         <v>370</v>
       </c>
@@ -10221,6 +15869,10 @@
       <c r="N76">
         <v>4677999.4346669996</v>
       </c>
+      <c r="Q76">
+        <f t="shared" si="1"/>
+        <v>1754249788.0001249</v>
+      </c>
       <c r="W76">
         <v>375</v>
       </c>
@@ -10250,6 +15902,10 @@
       <c r="N77">
         <v>220619566.45789501</v>
       </c>
+      <c r="Q77">
+        <f t="shared" si="1"/>
+        <v>83835435254.000107</v>
+      </c>
       <c r="W77">
         <v>380</v>
       </c>
@@ -10279,6 +15935,10 @@
       <c r="N78">
         <v>4702535.579221</v>
       </c>
+      <c r="Q78">
+        <f t="shared" si="1"/>
+        <v>1810476198.0000849</v>
+      </c>
       <c r="W78">
         <v>385</v>
       </c>
@@ -10308,6 +15968,10 @@
       <c r="N79">
         <v>4698585.9487180002</v>
       </c>
+      <c r="Q79">
+        <f t="shared" si="1"/>
+        <v>1832448520.00002</v>
+      </c>
       <c r="W79">
         <v>390</v>
       </c>
@@ -10337,6 +16001,10 @@
       <c r="N80">
         <v>4574093.0050630001</v>
       </c>
+      <c r="Q80">
+        <f t="shared" si="1"/>
+        <v>1806766736.9998851</v>
+      </c>
       <c r="W80">
         <v>395</v>
       </c>
@@ -10366,6 +16034,10 @@
       <c r="N81">
         <v>4541248.0949999997</v>
       </c>
+      <c r="Q81">
+        <f t="shared" si="1"/>
+        <v>1816499238</v>
+      </c>
       <c r="W81">
         <v>400</v>
       </c>
@@ -10395,6 +16067,10 @@
       <c r="N82">
         <v>4429146.1358019998</v>
       </c>
+      <c r="Q82">
+        <f t="shared" si="1"/>
+        <v>1793804184.99981</v>
+      </c>
       <c r="W82">
         <v>405</v>
       </c>
@@ -10424,6 +16100,10 @@
       <c r="N83">
         <v>48171824.309756003</v>
       </c>
+      <c r="Q83">
+        <f t="shared" si="1"/>
+        <v>19750447966.999962</v>
+      </c>
       <c r="W83">
         <v>410</v>
       </c>
@@ -10453,6 +16133,10 @@
       <c r="N84">
         <v>4783169.9108429998</v>
       </c>
+      <c r="Q84">
+        <f t="shared" si="1"/>
+        <v>1985015512.999845</v>
+      </c>
       <c r="W84">
         <v>415</v>
       </c>
@@ -10482,6 +16166,10 @@
       <c r="N85">
         <v>4476088.6261900002</v>
       </c>
+      <c r="Q85">
+        <f t="shared" si="1"/>
+        <v>1879957222.9998002</v>
+      </c>
       <c r="W85">
         <v>420</v>
       </c>
@@ -10511,6 +16199,10 @@
       <c r="N86">
         <v>4598123.1035289997</v>
       </c>
+      <c r="Q86">
+        <f t="shared" si="1"/>
+        <v>1954202318.999825</v>
+      </c>
       <c r="W86">
         <v>425</v>
       </c>
@@ -10540,6 +16232,10 @@
       <c r="N87">
         <v>8082295.1697669998</v>
       </c>
+      <c r="Q87">
+        <f t="shared" si="1"/>
+        <v>3475386922.9998097</v>
+      </c>
       <c r="W87">
         <v>430</v>
       </c>
@@ -10569,6 +16265,10 @@
       <c r="N88">
         <v>37381960.845977001</v>
       </c>
+      <c r="Q88">
+        <f t="shared" si="1"/>
+        <v>16261152967.999996</v>
+      </c>
       <c r="W88">
         <v>435</v>
       </c>
@@ -10598,6 +16298,10 @@
       <c r="N89">
         <v>4688082.3090909999</v>
       </c>
+      <c r="Q89">
+        <f t="shared" si="1"/>
+        <v>2062756216.0000401</v>
+      </c>
       <c r="W89">
         <v>440</v>
       </c>
@@ -10627,6 +16331,10 @@
       <c r="N90">
         <v>7798221.3191010002</v>
       </c>
+      <c r="Q90">
+        <f t="shared" si="1"/>
+        <v>3470208486.9999452</v>
+      </c>
       <c r="W90">
         <v>445</v>
       </c>
@@ -10656,6 +16364,10 @@
       <c r="N91">
         <v>4845161.0066670002</v>
       </c>
+      <c r="Q91">
+        <f t="shared" si="1"/>
+        <v>2180322453.0001502</v>
+      </c>
       <c r="W91">
         <v>450</v>
       </c>
@@ -10685,6 +16397,10 @@
       <c r="N92">
         <v>5251118.9054950001</v>
       </c>
+      <c r="Q92">
+        <f t="shared" si="1"/>
+        <v>2389259102.0002251</v>
+      </c>
       <c r="W92">
         <v>455</v>
       </c>
@@ -10714,6 +16430,10 @@
       <c r="N93">
         <v>43596159.908696003</v>
       </c>
+      <c r="Q93">
+        <f t="shared" si="1"/>
+        <v>20054233558.00016</v>
+      </c>
       <c r="W93">
         <v>460</v>
       </c>
@@ -10743,6 +16463,10 @@
       <c r="N94">
         <v>7864605.3784950003</v>
       </c>
+      <c r="Q94">
+        <f t="shared" si="1"/>
+        <v>3657041501.000175</v>
+      </c>
       <c r="W94">
         <v>465</v>
       </c>
@@ -10772,6 +16496,10 @@
       <c r="N95">
         <v>6248987.1978719998</v>
       </c>
+      <c r="Q95">
+        <f t="shared" si="1"/>
+        <v>2937023982.9998398</v>
+      </c>
       <c r="W95">
         <v>470</v>
       </c>
@@ -10801,6 +16529,10 @@
       <c r="N96">
         <v>37676341.724211</v>
       </c>
+      <c r="Q96">
+        <f t="shared" si="1"/>
+        <v>17896262319.000225</v>
+      </c>
       <c r="W96">
         <v>475</v>
       </c>
@@ -10830,6 +16562,10 @@
       <c r="N97">
         <v>4363589.702083</v>
       </c>
+      <c r="Q97">
+        <f t="shared" si="1"/>
+        <v>2094523056.99984</v>
+      </c>
       <c r="W97">
         <v>480</v>
       </c>
@@ -10859,6 +16595,10 @@
       <c r="N98">
         <v>5073342.0742269997</v>
       </c>
+      <c r="Q98">
+        <f t="shared" si="1"/>
+        <v>2460570906.0000949</v>
+      </c>
       <c r="W98">
         <v>485</v>
       </c>
@@ -10888,6 +16628,10 @@
       <c r="N99">
         <v>4650723.9877549997</v>
       </c>
+      <c r="Q99">
+        <f t="shared" si="1"/>
+        <v>2278854753.9999499</v>
+      </c>
       <c r="W99">
         <v>490</v>
       </c>
@@ -10917,6 +16661,10 @@
       <c r="N100">
         <v>4265168.4404039998</v>
       </c>
+      <c r="Q100">
+        <f t="shared" si="1"/>
+        <v>2111258377.99998</v>
+      </c>
       <c r="W100">
         <v>495</v>
       </c>
@@ -10945,6 +16693,10 @@
       </c>
       <c r="N101">
         <v>50146465.692000002</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="1"/>
+        <v>25073232846</v>
       </c>
       <c r="W101">
         <v>500</v>
